--- a/biology/Médecine/Déficience_visuelle/Déficience_visuelle.xlsx
+++ b/biology/Médecine/Déficience_visuelle/Déficience_visuelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9ficience_visuelle</t>
+          <t>Déficience_visuelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un déficient visuel est une personne dont l'acuité visuelle est faible (malvoyante), voire inférieure à 1/20 pour le meilleur œil après correction (aveugle)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un déficient visuel est une personne dont l'acuité visuelle est faible (malvoyante), voire inférieure à 1/20 pour le meilleur œil après correction (aveugle).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9ficience_visuelle</t>
+          <t>Déficience_visuelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9ficience_visuelle</t>
+          <t>Déficience_visuelle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,9 +551,11 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon l'organisation mondiale de la santé (OMS), il existe différentes causes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon l'organisation mondiale de la santé (OMS), il existe différentes causes :
 les défauts de réfraction non corrigés : myopie, astigmatisme, hypermétropie et presbytie ;
 la cataracte ;
 la dégénérescence maculaire liée à l’âge ;
